--- a/biology/Zoologie/William_Harris_Ashmead/William_Harris_Ashmead.xlsx
+++ b/biology/Zoologie/William_Harris_Ashmead/William_Harris_Ashmead.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Harris Ashmead est un entomologiste américain, né le 19 septembre 1855 à Philadelphie et mort le 17 octobre 1908 à Washington D.C..
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études à Philadelphie, il entre dans la maison d'édition J.B. Lippincott Co. Plus tard, il s'installe en Floride où il fonde sa propre maison d'édition consacrée à l'agriculture.
 Il lance également le Florida Dispatch, un hebdomadaire agricole où il tient une rubrique consacrée aux insectes nuisibles. En 1879, il commence à faire paraître des articles dans des publications scientifiques et, en 1887, il devient entomologiste de terrain pour le compte du ministère de l'Agriculture de Floride.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Edward Oliver Essig (1931). A History of Entomology. Mac Millan (New York) : vii + 1029 p.</t>
         </is>
